--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Игорь\Documents\GitHub\ORC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -18,15 +23,72 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>COND-PUMP</t>
+  </si>
+  <si>
+    <t>PUMP-REG</t>
+  </si>
+  <si>
+    <t>REG-HEAT</t>
+  </si>
+  <si>
+    <t>HEAT-TURB</t>
+  </si>
+  <si>
+    <t>TURB-REG</t>
+  </si>
+  <si>
+    <t>REG-COND</t>
+  </si>
+  <si>
+    <t>HEAT-OUT</t>
+  </si>
+  <si>
+    <t>IN-HEAT</t>
+  </si>
+  <si>
+    <t>COND-PUMP1</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -45,15 +107,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +229,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,12 +269,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +309,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -181,7 +341,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +491,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="6" width="9.140625" style="8"/>
+    <col min="7" max="7" width="9.140625" style="9"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/streams.xlsx
+++ b/streams.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>T</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>IN-HEAT</t>
-  </si>
-  <si>
-    <t>COND-PUMP1</t>
   </si>
   <si>
     <t>S</t>
@@ -491,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -518,7 +515,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>2</v>
@@ -565,11 +562,6 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Игорь\Documents\GitHub\ORC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pyscripts\github\ORC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBAAD51-4A23-4D9B-89C3-CFE21B51CF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -71,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +88,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -191,7 +199,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -208,6 +215,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -487,82 +497,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="L7" sqref="L7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="6" width="9.140625" style="8"/>
-    <col min="7" max="7" width="9.140625" style="9"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6"/>
+    <col min="3" max="6" width="9.140625" style="7"/>
+    <col min="7" max="7" width="9.140625" style="8"/>
+    <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N9" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pyscripts\github\ORC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBAAD51-4A23-4D9B-89C3-CFE21B51CF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DFBB73-5BED-457A-9743-69DF58BE8A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>T</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>IN-COND</t>
+  </si>
+  <si>
+    <t>COND-OUT</t>
   </si>
 </sst>
 </file>
@@ -82,14 +88,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
@@ -104,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -193,29 +199,125 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -498,24 +600,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7:M7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="6"/>
-    <col min="3" max="6" width="9.140625" style="7"/>
-    <col min="7" max="7" width="9.140625" style="8"/>
+    <col min="1" max="1" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -530,50 +633,70 @@
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="10"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:14" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="14"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:14" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N9" s="9"/>
+      <c r="B9" s="14"/>
+      <c r="G9" s="16"/>
+      <c r="N9" s="17"/>
+    </row>
+    <row r="10" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="G11" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
